--- a/articles/course_docs/fall_2024_schedule.xlsx
+++ b/articles/course_docs/fall_2024_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 3043/mindsandmachines/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDDF196-9EC5-2E47-9BD9-D04925E97E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D833E95-A52D-0C4E-B1D1-58184C99D6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>W4 continued…</t>
   </si>
   <si>
-    <t>W5 continued…</t>
-  </si>
-  <si>
     <t>W9 continued…</t>
   </si>
   <si>
@@ -194,39 +191,6 @@
     <t>W1 continued…</t>
   </si>
   <si>
-    <t>**Project Milestone #2 (QALMRI+SPARK) Due**</t>
-  </si>
-  <si>
-    <t>**Project Milestone #3 (Project Plan) Due**</t>
-  </si>
-  <si>
-    <t>**Project Milestone #4 (First Draft) Due**</t>
-  </si>
-  <si>
-    <t>Reflection #1 due</t>
-  </si>
-  <si>
-    <t>Reflection #2 due</t>
-  </si>
-  <si>
-    <t>Reflection #3 due</t>
-  </si>
-  <si>
-    <t>Reflection #4 due</t>
-  </si>
-  <si>
-    <t>Reflection #5 due</t>
-  </si>
-  <si>
-    <t>Reflection #7 due</t>
-  </si>
-  <si>
-    <t>**Project Milestone #6 (Final Draft) Due**</t>
-  </si>
-  <si>
-    <t>**Project Milestone #1 (Questions of Interest) Due**</t>
-  </si>
-  <si>
     <t>W7 continued…</t>
   </si>
   <si>
@@ -254,42 +218,6 @@
     <t>[W14: Culture ](#week-14-culture)</t>
   </si>
   <si>
-    <t>Reflection #6 due</t>
-  </si>
-  <si>
-    <t>Monday, October 7, 2024</t>
-  </si>
-  <si>
-    <t>Monday, October 28, 2024</t>
-  </si>
-  <si>
-    <t>Monday, September 9, 2024</t>
-  </si>
-  <si>
-    <t>Monday, September 16, 2024</t>
-  </si>
-  <si>
-    <t>Monday, September 23, 2024</t>
-  </si>
-  <si>
-    <t>Monday, September 30, 2024</t>
-  </si>
-  <si>
-    <t>Monday, October 14, 2024</t>
-  </si>
-  <si>
-    <t>Monday, November 4, 2024</t>
-  </si>
-  <si>
-    <t>Monday, November 11, 2024</t>
-  </si>
-  <si>
-    <t>Monday, November 18, 2024</t>
-  </si>
-  <si>
-    <t>Monday, December 2, 2024</t>
-  </si>
-  <si>
     <t>Sunday, December 21, 2024</t>
   </si>
   <si>
@@ -297,6 +225,78 @@
   </si>
   <si>
     <t>[W7: Perception and Action](#week-7-perception-and-action)</t>
+  </si>
+  <si>
+    <t>**NO CLASS**</t>
+  </si>
+  <si>
+    <t>Sunday, September 8, 2024</t>
+  </si>
+  <si>
+    <t>Sunday, November 4, 2024</t>
+  </si>
+  <si>
+    <t>Sunday, September 15, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W1 Assignment (Reflection) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sunday, September 22, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W3 Assignment (Reflection) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sunday, September 29, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W4 Assignment (Reflection) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sunday, October 13, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W7 Assignment (Reflection) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sunday, October 20, 2024</t>
+  </si>
+  <si>
+    <t>Sunday, October 27, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W9 Assignment (Reflection) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sunday, November 17, 2024</t>
+  </si>
+  <si>
+    <t>Sunday, December 8, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W14 Assignment (Reflection) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Final Assignment (Project Milestone #5) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Sunday, November 10, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W10 Assignment (Reflection) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W6 Assignment (Project Milestone #2: QALMRI/SPARK) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W8 Assignment (Project Milestone #3: Project Plan) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W11 Assignment (Project Milestone #4: First Draft) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W2 Assignment (Project Milestone #1: Questions) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,8 +327,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,14 +350,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -366,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -380,17 +405,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7C280A-A1ED-4344-B991-35F39F8848A0}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -699,371 +733,371 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>15</v>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>21</v>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>54</v>
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>23</v>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18">
-      <c r="A7" s="5">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>61</v>
+      <c r="B7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>25</v>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18">
-      <c r="A10" s="7">
-        <v>4</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>55</v>
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>18</v>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>27</v>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18">
-      <c r="A13" s="7">
-        <v>5</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>56</v>
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18">
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>66</v>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18">
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18">
-      <c r="A16" s="5">
-        <v>6</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>51</v>
+      <c r="C16" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>2</v>
+      <c r="C17" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
-      <c r="A18">
+      <c r="A18" s="12">
         <v>6</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18">
-      <c r="A19" s="7">
-        <v>7</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>57</v>
+      <c r="C19" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
       <c r="A20">
         <v>7</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>85</v>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
       <c r="A21">
         <v>7</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
+      <c r="B21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
       <c r="A22">
         <v>8</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>63</v>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
       <c r="A23">
         <v>8</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>35</v>
+      <c r="B23" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
-      <c r="A24" s="5">
-        <v>9</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>52</v>
+      <c r="A24" s="12">
+        <v>8</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>65</v>
+      <c r="B25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
       <c r="A26">
         <v>9</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>37</v>
+      <c r="B26" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18">
-      <c r="A27" s="7">
-        <v>10</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>58</v>
+      <c r="A27" s="5">
+        <v>9</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
       <c r="A28">
         <v>10</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>67</v>
+      <c r="B28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18">
       <c r="A29">
         <v>10</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>39</v>
+      <c r="B29" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
       <c r="A30" s="5">
-        <v>11</v>
-      </c>
-      <c r="B30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>53</v>
+      <c r="C30" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
       <c r="A31">
         <v>11</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>69</v>
+      <c r="B31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
       <c r="A32">
         <v>11</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>41</v>
+      <c r="B32" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
-      <c r="A33" s="7">
-        <v>12</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>71</v>
+      <c r="A33" s="12">
+        <v>11</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
       <c r="A34">
         <v>12</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>68</v>
+      <c r="B34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
       <c r="A35" s="3">
         <v>12</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>43</v>
+      <c r="B35" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>5</v>
@@ -1073,8 +1107,8 @@
       <c r="A36" s="3">
         <v>13</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>44</v>
+      <c r="B36" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -1084,63 +1118,63 @@
       <c r="A37" s="3">
         <v>13</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>45</v>
+      <c r="B37" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
-      <c r="A38" s="7">
+      <c r="A38">
         <v>14</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>59</v>
+      <c r="B38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
       <c r="A39">
         <v>14</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>70</v>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
-      <c r="A40">
+      <c r="A40" s="5">
         <v>14</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
+      <c r="B40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
       <c r="A41">
         <v>15</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>19</v>
+      <c r="B41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18">
       <c r="A42">
         <v>15</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>49</v>
+      <c r="B42" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -1150,11 +1184,11 @@
       <c r="A43">
         <v>16</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>60</v>
+      <c r="B43" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3">

--- a/articles/course_docs/fall_2024_schedule.xlsx
+++ b/articles/course_docs/fall_2024_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/teaching/courses/PSYC 3043/mindsandmachines/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 3043/mindsandmachines/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D833E95-A52D-0C4E-B1D1-58184C99D6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E61217-F373-A74D-94DA-D679AD802C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>**Fall Break!! NO CLASS**</t>
   </si>
   <si>
-    <t>Wrap!</t>
-  </si>
-  <si>
     <t>**THANKSGIVING BREAK!!! NO CLASS**</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
     <t>Sunday, December 8, 2024</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W14 Assignment (Reflection) Due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Final Assignment (Project Milestone #5) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -297,6 +291,12 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W2 Assignment (Project Milestone #1: Questions) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Wrap! [Project Presentations]</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W14 Assignment (Reflection + Peer Review) Due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7C280A-A1ED-4344-B991-35F39F8848A0}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="117" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18">
@@ -734,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
@@ -745,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18">
@@ -756,10 +756,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
@@ -767,10 +767,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
@@ -778,10 +778,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18">
@@ -789,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
@@ -800,10 +800,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18">
@@ -811,10 +811,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18">
@@ -822,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
@@ -833,10 +833,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18">
@@ -844,10 +844,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18">
@@ -855,10 +855,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18">
@@ -866,10 +866,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18">
@@ -877,10 +877,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18">
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>2</v>
@@ -899,10 +899,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -910,10 +910,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -932,10 +932,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -943,10 +943,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
@@ -954,10 +954,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -965,10 +965,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -976,10 +976,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -987,10 +987,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -998,10 +998,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18">
@@ -1009,10 +1009,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
@@ -1020,10 +1020,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18">
@@ -1031,10 +1031,10 @@
         <v>10</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -1042,10 +1042,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -1053,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -1064,10 +1064,10 @@
         <v>11</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -1075,10 +1075,10 @@
         <v>11</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
@@ -1086,10 +1086,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -1097,10 +1097,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -1108,10 +1108,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
@@ -1119,10 +1119,10 @@
         <v>13</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -1130,10 +1130,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
@@ -1141,10 +1141,10 @@
         <v>14</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
@@ -1152,10 +1152,10 @@
         <v>14</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
@@ -1163,10 +1163,10 @@
         <v>15</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18">
@@ -1174,10 +1174,10 @@
         <v>15</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18">
@@ -1185,10 +1185,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:3">

--- a/articles/course_docs/fall_2024_schedule.xlsx
+++ b/articles/course_docs/fall_2024_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 3043/mindsandmachines/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E61217-F373-A74D-94DA-D679AD802C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3163FAFD-C028-384D-8408-C2E411C6FD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>[W10: Consciousness &amp; sentience](#week-10-consciousness-and-sentience)</t>
   </si>
   <si>
-    <t>W12 [Project Discussion Day]</t>
-  </si>
-  <si>
     <t>[W11: Memories, Dreams, and Plans](#week-11-memories-dreams-and-plans)</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;W14 Assignment (Reflection + Peer Review) Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>[W12:Project Discussion](#week-12-project-discussion)</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -756,10 +756,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
@@ -789,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
@@ -822,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
@@ -855,10 +855,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18">
@@ -869,7 +869,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18">
@@ -902,7 +902,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -910,10 +910,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
@@ -924,7 +924,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -943,10 +943,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
@@ -976,10 +976,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -1009,10 +1009,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
@@ -1042,10 +1042,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -1056,7 +1056,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -1075,10 +1075,10 @@
         <v>11</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
@@ -1089,7 +1089,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -1133,7 +1133,7 @@
         <v>44</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
@@ -1152,10 +1152,10 @@
         <v>14</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
@@ -1177,7 +1177,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18">
@@ -1185,10 +1185,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3">

--- a/articles/course_docs/fall_2024_schedule.xlsx
+++ b/articles/course_docs/fall_2024_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 3043/mindsandmachines/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3163FAFD-C028-384D-8408-C2E411C6FD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDF727F-D987-2142-89BA-0380278C50DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>Week</t>
   </si>
@@ -212,9 +212,6 @@
     <t>[W14: Culture ](#week-14-culture)</t>
   </si>
   <si>
-    <t>Sunday, December 21, 2024</t>
-  </si>
-  <si>
     <t>[W6: Review and Reflect](#week-6-review-and-reflect)</t>
   </si>
   <si>
@@ -297,6 +294,21 @@
   </si>
   <si>
     <t>[W12:Project Discussion](#week-12-project-discussion)</t>
+  </si>
+  <si>
+    <t>Monday, December 9, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Class Survey Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Wednesday, December 11, 2024</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#0E8AC1"&gt;Memer Survey Due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Tuesday, December 17, 2024</t>
   </si>
 </sst>
 </file>
@@ -705,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7C280A-A1ED-4344-B991-35F39F8848A0}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="165" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -756,10 +768,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
@@ -789,10 +801,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
@@ -822,10 +834,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
@@ -855,10 +867,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18">
@@ -869,7 +881,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18">
@@ -902,7 +914,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -910,10 +922,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
@@ -924,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -943,10 +955,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
@@ -976,10 +988,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -1009,10 +1021,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
@@ -1042,10 +1054,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -1075,10 +1087,10 @@
         <v>11</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
@@ -1089,7 +1101,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -1152,21 +1164,21 @@
         <v>14</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
-      <c r="A41">
-        <v>15</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>17</v>
+      <c r="A41" s="5">
+        <v>14</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18">
@@ -1174,28 +1186,50 @@
         <v>15</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>46</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18">
       <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18">
+      <c r="A45">
         <v>16</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="C48" s="1"/>
+      <c r="B45" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
